--- a/InstaExt/docs/TestScenario_results/InstaExt_TestScenario_Ver1.00_sprint3.xlsx
+++ b/InstaExt/docs/TestScenario_results/InstaExt_TestScenario_Ver1.00_sprint3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/TestScenario_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B474D2A-59F0-5649-87BE-EC889E3C0E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1360DE0B-853C-5943-A49B-14A93F30D5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="12760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25640" yWindow="860" windowWidth="25600" windowHeight="12760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>User/Email</t>
   </si>
@@ -1223,6 +1223,18 @@
       <t>ガゾウハジメルガメnヒョウハジメルムコウシャシnユウコウシャシnヒョウシャシnキョカシャシnユウコウイロハジメユウコウイチジョウホウユウコウイチジョウホウヒョウジサルキョカイチジョウホウユウコウンハイケイカワルハジメルガメnヒョウジサルヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iPhone8</t>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>a6e1ec7</t>
+    <phoneticPr fontId="33"/>
   </si>
 </sst>
 </file>
@@ -1643,7 +1655,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1866,12 +1878,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1937,6 +1943,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3159,8 +3174,8 @@
       <c r="D2" s="31"/>
     </row>
     <row r="3" spans="2:254" ht="18">
-      <c r="B3" s="77"/>
-      <c r="C3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3169,10 +3184,10 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:254" ht="31" customHeight="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="53"/>
@@ -3181,10 +3196,10 @@
       <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="95" t="s">
         <v>2</v>
       </c>
       <c r="IO5" s="2"/>
@@ -3195,8 +3210,8 @@
       <c r="IT5" s="2"/>
     </row>
     <row r="6" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
       <c r="IO6" s="2"/>
       <c r="IP6" s="2"/>
       <c r="IQ6" s="2"/>
@@ -3365,11 +3380,11 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:254" ht="31" customHeight="1">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3671,7 +3686,7 @@
   <dimension ref="B2:IU23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3682,11 +3697,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="88"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3943,8 +3958,10 @@
       <c r="B3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="96">
+        <v>42770</v>
+      </c>
+      <c r="D3" s="76"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4201,8 +4218,10 @@
       <c r="B4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="76"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4459,8 +4478,10 @@
       <c r="B5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="78"/>
+      <c r="C5" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="76"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -4717,8 +4738,10 @@
       <c r="B6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="76"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4972,9 +4995,9 @@
       <c r="IU6" s="1"/>
     </row>
     <row r="7" spans="2:255" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="77"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="78"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -5228,9 +5251,9 @@
       <c r="IU7" s="1"/>
     </row>
     <row r="8" spans="2:255" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -5484,11 +5507,11 @@
       <c r="IU8" s="1"/>
     </row>
     <row r="9" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="88"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="53"/>
@@ -5742,20 +5765,20 @@
       <c r="IU9" s="1"/>
     </row>
     <row r="10" spans="2:255" s="2" customFormat="1" ht="19">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -6014,11 +6037,11 @@
       <c r="D11" s="43">
         <v>0</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="65"/>
       <c r="K11" s="64"/>
       <c r="L11" s="1"/>
@@ -6277,11 +6300,11 @@
       <c r="D12" s="43">
         <v>0</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="1"/>
       <c r="K12" s="63"/>
       <c r="L12" s="1"/>
@@ -6539,11 +6562,11 @@
       <c r="D13" s="43">
         <v>0</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="1"/>
       <c r="K13" s="66"/>
       <c r="L13" s="1"/>
@@ -6796,17 +6819,16 @@
         <v>42</v>
       </c>
       <c r="C14" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B14&amp;"'!$e:$e",TRUE),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" s="43">
         <v>0</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="1"/>
       <c r="K14" s="67"/>
       <c r="L14" s="66"/>
@@ -7059,17 +7081,16 @@
         <v>43</v>
       </c>
       <c r="C15" s="43">
-        <f ca="1">COUNTA(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE))-1 - COUNTIF(INDIRECT("'"&amp;B15&amp;"'!$e:$e",TRUE),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" s="43">
         <v>0</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -7323,17 +7344,17 @@
       </c>
       <c r="C16" s="56">
         <f ca="1">SUM(C11:C15)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D16" s="56">
         <f>SUM(D11:D15)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="1"/>
       <c r="K16" s="66"/>
       <c r="L16" s="1"/>
@@ -7582,14 +7603,14 @@
       <c r="IU16" s="1"/>
     </row>
     <row r="17" spans="2:255" s="2" customFormat="1" ht="18.25" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="1"/>
       <c r="K17" s="66"/>
       <c r="L17" s="1"/>
@@ -7841,11 +7862,11 @@
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="67"/>
       <c r="K18" s="67"/>
       <c r="L18" s="67"/>
@@ -8097,11 +8118,11 @@
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="67"/>
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
@@ -8353,11 +8374,11 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
@@ -8609,11 +8630,11 @@
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
@@ -8865,11 +8886,11 @@
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="1"/>
       <c r="K22" s="66"/>
       <c r="L22" s="1"/>
@@ -9388,7 +9409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971E529F-2AED-F246-A679-4B4F74669F54}">
   <dimension ref="A1:II6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -9399,7 +9420,7 @@
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="82" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="69" customWidth="1"/>
     <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
@@ -9416,7 +9437,7 @@
       <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -9438,7 +9459,7 @@
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="79"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="58"/>
       <c r="G2" s="70"/>
     </row>
@@ -9451,7 +9472,7 @@
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="80"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="59"/>
       <c r="G3" s="71"/>
     </row>
@@ -9466,7 +9487,7 @@
       <c r="D4" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="84" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="24"/>
@@ -9505,8 +9526,8 @@
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="82" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
     <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
@@ -9523,7 +9544,7 @@
       <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -9544,8 +9565,8 @@
         <v>49</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
@@ -9557,8 +9578,8 @@
         <v>54</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
@@ -9570,10 +9591,10 @@
       <c r="C4" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="79" t="s">
         <v>95</v>
       </c>
       <c r="F4" s="47"/>
@@ -9589,8 +9610,8 @@
         <v>57</v>
       </c>
       <c r="C5" s="50"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
     </row>
@@ -9602,10 +9623,10 @@
       <c r="C6" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="91" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="61"/>
@@ -9642,8 +9663,8 @@
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="82" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
     <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
@@ -9660,7 +9681,7 @@
       <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -9681,8 +9702,8 @@
         <v>52</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
@@ -9694,8 +9715,8 @@
         <v>78</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
@@ -9707,10 +9728,10 @@
       <c r="C4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
     </row>
@@ -9722,8 +9743,8 @@
         <v>77</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
@@ -9735,10 +9756,10 @@
       <c r="C6" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="83" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="52" t="s">
@@ -9754,8 +9775,8 @@
         <v>58</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
     </row>
@@ -9767,10 +9788,10 @@
       <c r="C8" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="83" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="52"/>
@@ -9784,8 +9805,8 @@
         <v>59</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="58"/>
       <c r="G9" s="58"/>
     </row>
@@ -9797,8 +9818,8 @@
         <v>92</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
     </row>
@@ -9810,10 +9831,10 @@
       <c r="C11" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="83" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="52"/>
@@ -9839,10 +9860,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C667D84-4B59-CC45-8230-4F79DB1549A9}">
   <dimension ref="A1:II16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9850,8 +9871,8 @@
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="82" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
     <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
@@ -9868,7 +9889,7 @@
       <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -9889,8 +9910,8 @@
         <v>73</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
@@ -9902,8 +9923,8 @@
         <v>84</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
@@ -9915,10 +9936,8 @@
       <c r="C4" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="86" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="24"/>
@@ -9932,8 +9951,8 @@
         <v>83</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
@@ -9945,10 +9964,8 @@
       <c r="C6" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="86" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="24"/>
@@ -9962,8 +9979,8 @@
         <v>74</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
     </row>
@@ -9975,8 +9992,8 @@
         <v>85</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
     </row>
@@ -9988,10 +10005,8 @@
       <c r="C9" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="86" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="24"/>
@@ -10005,8 +10020,8 @@
         <v>83</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
     </row>
@@ -10018,10 +10033,8 @@
       <c r="C11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="86" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="24"/>
@@ -10035,8 +10048,8 @@
         <v>75</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
     </row>
@@ -10048,8 +10061,8 @@
         <v>88</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
     </row>
@@ -10061,10 +10074,8 @@
       <c r="C14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F14" s="24"/>
@@ -10078,8 +10089,8 @@
         <v>83</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
     </row>
@@ -10091,10 +10102,8 @@
       <c r="C16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="86" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="84" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="24"/>
@@ -10123,7 +10132,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -10131,8 +10140,8 @@
     <col min="1" max="1" width="3.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="72.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="82" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="57" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="57" customWidth="1"/>
     <col min="8" max="243" width="3.140625" style="9" customWidth="1"/>
@@ -10149,7 +10158,7 @@
       <c r="C1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="85" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -10170,8 +10179,8 @@
         <v>53</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
@@ -10183,8 +10192,8 @@
         <v>61</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
     </row>
@@ -10196,10 +10205,8 @@
       <c r="C4" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="83" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="52"/>
@@ -10213,8 +10220,8 @@
         <v>67</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
     </row>
@@ -10226,10 +10233,8 @@
       <c r="C6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="85" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="83" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="52"/>
@@ -10243,8 +10248,8 @@
         <v>68</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
     </row>
@@ -10256,23 +10261,21 @@
       <c r="C8" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
     </row>
     <row r="10" spans="1:7" ht="14" customHeight="1">
-      <c r="B10" s="92"/>
+      <c r="B10" s="90"/>
     </row>
     <row r="11" spans="1:7" ht="14" customHeight="1">
-      <c r="B11" s="92"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" spans="1:7" ht="14" customHeight="1">
-      <c r="B12" s="92"/>
+      <c r="B12" s="90"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{8F3CD391-EF7C-2048-B22F-A72DEFFEAD81}"/>
@@ -10291,6 +10294,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10446,22 +10464,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10477,21 +10497,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>